--- a/src/main/resources/templates/datosAbiertos-PLACSP.xlsx
+++ b/src/main/resources/templates/datosAbiertos-PLACSP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desarrollo\eclipse-workspace\RISP-PLACSP\src\main\resources\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\camose\Desktop\test automate\programa\src\main\resources\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EFA015A-16C5-4C3D-801E-64E0F82553C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4EB7B7-BCAE-4021-AE2F-85F8E4337F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Presentación" sheetId="1" r:id="rId1"/>
@@ -755,52 +755,52 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="42.54296875" customWidth="1"/>
-    <col min="3" max="3" width="31.81640625" customWidth="1"/>
-    <col min="4" max="4" width="67.54296875" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
+    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="4" max="4" width="67.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="9" spans="2:4" ht="115.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="2:4" ht="115.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
     </row>
-    <row r="10" spans="2:4" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:4" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="11" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="7" t="s">
         <v>0</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="9"/>
     </row>
-    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>1</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="12"/>
     </row>
-    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:4" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
     </row>
-    <row r="14" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="14" spans="2:4" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="13" t="s">
         <v>3</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="15"/>
     </row>
-    <row r="16" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="2:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="17" spans="2:4" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B17" s="4" t="s">
         <v>5</v>
       </c>
